--- a/Nevada/WaterAllocation/NV_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/WaterAllocation/NV_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA29765-CF2C-4546-B95F-71F80CD42568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1AA931-7EFF-46CC-91B4-32B35497BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" firstSheet="3" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" firstSheet="3" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="366">
   <si>
     <t>Name</t>
   </si>
@@ -1138,6 +1138,9 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Nevada</t>
   </si>
 </sst>
 </file>
@@ -3749,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3935,7 +3938,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>38</v>
@@ -4155,11 +4158,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
     <sortCondition ref="A17:A25"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{9365CA7C-F7AD-5643-961A-EE46A9482AD2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5177,7 +5177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
